--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pdgfb-Art1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pdgfb-Art1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.253501</v>
+        <v>45.01222466666667</v>
       </c>
       <c r="H2">
-        <v>87.760503</v>
+        <v>135.036674</v>
       </c>
       <c r="I2">
-        <v>0.7876335333413836</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="J2">
-        <v>0.7876335333413838</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.04418433333333333</v>
+        <v>0.2283436666666667</v>
       </c>
       <c r="N2">
-        <v>0.132553</v>
+        <v>0.6850310000000001</v>
       </c>
       <c r="O2">
-        <v>0.01996731490055206</v>
+        <v>0.09370018555900643</v>
       </c>
       <c r="P2">
-        <v>0.01996731490055207</v>
+        <v>0.09370018555900644</v>
       </c>
       <c r="Q2">
-        <v>1.292546439351</v>
+        <v>10.27825642521045</v>
       </c>
       <c r="R2">
-        <v>11.632917954159</v>
+        <v>92.50430782689401</v>
       </c>
       <c r="S2">
-        <v>0.01572692678646188</v>
+        <v>0.07011494187034142</v>
       </c>
       <c r="T2">
-        <v>0.01572692678646188</v>
+        <v>0.07011494187034142</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.253501</v>
+        <v>45.01222466666667</v>
       </c>
       <c r="H3">
-        <v>87.760503</v>
+        <v>135.036674</v>
       </c>
       <c r="I3">
-        <v>0.7876335333413836</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="J3">
-        <v>0.7876335333413838</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.526516</v>
       </c>
       <c r="O3">
-        <v>0.2299489688858882</v>
+        <v>0.2088005250255714</v>
       </c>
       <c r="P3">
-        <v>0.2299489688858882</v>
+        <v>0.2088005250255715</v>
       </c>
       <c r="Q3">
-        <v>14.885312444172</v>
+        <v>22.90396038308711</v>
       </c>
       <c r="R3">
-        <v>133.967811997548</v>
+        <v>206.135643447784</v>
       </c>
       <c r="S3">
-        <v>0.1811155188518</v>
+        <v>0.1562434117640604</v>
       </c>
       <c r="T3">
-        <v>0.1811155188518001</v>
+        <v>0.1562434117640605</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.253501</v>
+        <v>45.01222466666667</v>
       </c>
       <c r="H4">
-        <v>87.760503</v>
+        <v>135.036674</v>
       </c>
       <c r="I4">
-        <v>0.7876335333413836</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="J4">
-        <v>0.7876335333413838</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.652680333333334</v>
+        <v>1.699778333333333</v>
       </c>
       <c r="N4">
-        <v>4.958041000000001</v>
+        <v>5.099335</v>
       </c>
       <c r="O4">
-        <v>0.746861752935415</v>
+        <v>0.6974992894154221</v>
       </c>
       <c r="P4">
-        <v>0.7468617529354151</v>
+        <v>0.6974992894154222</v>
       </c>
       <c r="Q4">
-        <v>48.34668578384701</v>
+        <v>76.51080422353223</v>
       </c>
       <c r="R4">
-        <v>435.120172054623</v>
+        <v>688.5972380117901</v>
       </c>
       <c r="S4">
-        <v>0.5882533613820604</v>
+        <v>0.5219319667320127</v>
       </c>
       <c r="T4">
-        <v>0.5882533613820606</v>
+        <v>0.5219319667320128</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.253501</v>
+        <v>2.766295666666667</v>
       </c>
       <c r="H5">
-        <v>87.760503</v>
+        <v>8.298887000000001</v>
       </c>
       <c r="I5">
-        <v>0.7876335333413836</v>
+        <v>0.04598733535094824</v>
       </c>
       <c r="J5">
-        <v>0.7876335333413838</v>
+        <v>0.04598733535094825</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.007129666666666666</v>
+        <v>0.2283436666666667</v>
       </c>
       <c r="N5">
-        <v>0.021389</v>
+        <v>0.6850310000000001</v>
       </c>
       <c r="O5">
-        <v>0.003221963278144652</v>
+        <v>0.09370018555900643</v>
       </c>
       <c r="P5">
-        <v>0.003221963278144652</v>
+        <v>0.09370018555900644</v>
       </c>
       <c r="Q5">
-        <v>0.208567710963</v>
+        <v>0.6316660956107779</v>
       </c>
       <c r="R5">
-        <v>1.877109398667</v>
+        <v>5.684994860497</v>
       </c>
       <c r="S5">
-        <v>0.00253772632106126</v>
+        <v>0.004309021855748106</v>
       </c>
       <c r="T5">
-        <v>0.00253772632106126</v>
+        <v>0.004309021855748107</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.138366333333334</v>
+        <v>2.766295666666667</v>
       </c>
       <c r="H6">
-        <v>9.415099000000001</v>
+        <v>8.298887000000001</v>
       </c>
       <c r="I6">
-        <v>0.08449869176489255</v>
+        <v>0.04598733535094824</v>
       </c>
       <c r="J6">
-        <v>0.08449869176489258</v>
+        <v>0.04598733535094825</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.04418433333333333</v>
+        <v>0.5088386666666667</v>
       </c>
       <c r="N6">
-        <v>0.132553</v>
+        <v>1.526516</v>
       </c>
       <c r="O6">
-        <v>0.01996731490055206</v>
+        <v>0.2088005250255714</v>
       </c>
       <c r="P6">
-        <v>0.01996731490055207</v>
+        <v>0.2088005250255715</v>
       </c>
       <c r="Q6">
-        <v>0.1386666241941111</v>
+        <v>1.407598198632444</v>
       </c>
       <c r="R6">
-        <v>1.247999617747</v>
+        <v>12.668383787692</v>
       </c>
       <c r="S6">
-        <v>0.001687211987154295</v>
+        <v>0.009602179765805014</v>
       </c>
       <c r="T6">
-        <v>0.001687211987154296</v>
+        <v>0.009602179765805017</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.138366333333334</v>
+        <v>2.766295666666667</v>
       </c>
       <c r="H7">
-        <v>9.415099000000001</v>
+        <v>8.298887000000001</v>
       </c>
       <c r="I7">
-        <v>0.08449869176489255</v>
+        <v>0.04598733535094824</v>
       </c>
       <c r="J7">
-        <v>0.08449869176489258</v>
+        <v>0.04598733535094825</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5088386666666667</v>
+        <v>1.699778333333333</v>
       </c>
       <c r="N7">
-        <v>1.526516</v>
+        <v>5.099335</v>
       </c>
       <c r="O7">
-        <v>0.2299489688858882</v>
+        <v>0.6974992894154221</v>
       </c>
       <c r="P7">
-        <v>0.2299489688858882</v>
+        <v>0.6974992894154222</v>
       </c>
       <c r="Q7">
-        <v>1.596922140564889</v>
+        <v>4.702089437793889</v>
       </c>
       <c r="R7">
-        <v>14.372299265084</v>
+        <v>42.318804940145</v>
       </c>
       <c r="S7">
-        <v>0.01943038704354353</v>
+        <v>0.03207613372939511</v>
       </c>
       <c r="T7">
-        <v>0.01943038704354354</v>
+        <v>0.03207613372939513</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.138366333333334</v>
+        <v>12.37490333333333</v>
       </c>
       <c r="H8">
-        <v>9.415099000000001</v>
+        <v>37.12471</v>
       </c>
       <c r="I8">
-        <v>0.08449869176489255</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="J8">
-        <v>0.08449869176489258</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.652680333333334</v>
+        <v>0.2283436666666667</v>
       </c>
       <c r="N8">
-        <v>4.958041000000001</v>
+        <v>0.6850310000000001</v>
       </c>
       <c r="O8">
-        <v>0.746861752935415</v>
+        <v>0.09370018555900643</v>
       </c>
       <c r="P8">
-        <v>0.7468617529354151</v>
+        <v>0.09370018555900644</v>
       </c>
       <c r="Q8">
-        <v>5.186716317895446</v>
+        <v>2.82573080177889</v>
       </c>
       <c r="R8">
-        <v>46.68044686105901</v>
+        <v>25.43157721601</v>
       </c>
       <c r="S8">
-        <v>0.06310884105227697</v>
+        <v>0.01927622183291691</v>
       </c>
       <c r="T8">
-        <v>0.063108841052277</v>
+        <v>0.01927622183291691</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.138366333333334</v>
+        <v>12.37490333333333</v>
       </c>
       <c r="H9">
-        <v>9.415099000000001</v>
+        <v>37.12471</v>
       </c>
       <c r="I9">
-        <v>0.08449869176489255</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="J9">
-        <v>0.08449869176489258</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.007129666666666666</v>
+        <v>0.5088386666666667</v>
       </c>
       <c r="N9">
-        <v>0.021389</v>
+        <v>1.526516</v>
       </c>
       <c r="O9">
-        <v>0.003221963278144652</v>
+        <v>0.2088005250255714</v>
       </c>
       <c r="P9">
-        <v>0.003221963278144652</v>
+        <v>0.2088005250255715</v>
       </c>
       <c r="Q9">
-        <v>0.02237550583455556</v>
+        <v>6.296829312262222</v>
       </c>
       <c r="R9">
-        <v>0.201379552511</v>
+        <v>56.67146381036</v>
       </c>
       <c r="S9">
-        <v>0.0002722516819177477</v>
+        <v>0.042954933495706</v>
       </c>
       <c r="T9">
-        <v>0.0002722516819177478</v>
+        <v>0.042954933495706</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,232 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.749137666666666</v>
+        <v>12.37490333333333</v>
       </c>
       <c r="H10">
-        <v>14.247413</v>
+        <v>37.12471</v>
       </c>
       <c r="I10">
-        <v>0.1278677748937237</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="J10">
-        <v>0.1278677748937237</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.04418433333333333</v>
+        <v>1.699778333333333</v>
       </c>
       <c r="N10">
-        <v>0.132553</v>
+        <v>5.099335</v>
       </c>
       <c r="O10">
-        <v>0.01996731490055206</v>
+        <v>0.6974992894154221</v>
       </c>
       <c r="P10">
-        <v>0.01996731490055207</v>
+        <v>0.6974992894154222</v>
       </c>
       <c r="Q10">
-        <v>0.2098374817098889</v>
+        <v>21.03459256309445</v>
       </c>
       <c r="R10">
-        <v>1.888537335389</v>
+        <v>189.31133306785</v>
       </c>
       <c r="S10">
-        <v>0.002553176126935886</v>
+        <v>0.1434911889540142</v>
       </c>
       <c r="T10">
-        <v>0.002553176126935887</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>4.749137666666666</v>
-      </c>
-      <c r="H11">
-        <v>14.247413</v>
-      </c>
-      <c r="I11">
-        <v>0.1278677748937237</v>
-      </c>
-      <c r="J11">
-        <v>0.1278677748937237</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.5088386666666667</v>
-      </c>
-      <c r="N11">
-        <v>1.526516</v>
-      </c>
-      <c r="O11">
-        <v>0.2299489688858882</v>
-      </c>
-      <c r="P11">
-        <v>0.2299489688858882</v>
-      </c>
-      <c r="Q11">
-        <v>2.416544878123111</v>
-      </c>
-      <c r="R11">
-        <v>21.748903903108</v>
-      </c>
-      <c r="S11">
-        <v>0.02940306299054462</v>
-      </c>
-      <c r="T11">
-        <v>0.02940306299054463</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>4.749137666666666</v>
-      </c>
-      <c r="H12">
-        <v>14.247413</v>
-      </c>
-      <c r="I12">
-        <v>0.1278677748937237</v>
-      </c>
-      <c r="J12">
-        <v>0.1278677748937237</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1.652680333333334</v>
-      </c>
-      <c r="N12">
-        <v>4.958041000000001</v>
-      </c>
-      <c r="O12">
-        <v>0.746861752935415</v>
-      </c>
-      <c r="P12">
-        <v>0.7468617529354151</v>
-      </c>
-      <c r="Q12">
-        <v>7.848806421992555</v>
-      </c>
-      <c r="R12">
-        <v>70.639257797933</v>
-      </c>
-      <c r="S12">
-        <v>0.09549955050107752</v>
-      </c>
-      <c r="T12">
-        <v>0.09549955050107754</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>4.749137666666666</v>
-      </c>
-      <c r="H13">
-        <v>14.247413</v>
-      </c>
-      <c r="I13">
-        <v>0.1278677748937237</v>
-      </c>
-      <c r="J13">
-        <v>0.1278677748937237</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.007129666666666666</v>
-      </c>
-      <c r="N13">
-        <v>0.021389</v>
-      </c>
-      <c r="O13">
-        <v>0.003221963278144652</v>
-      </c>
-      <c r="P13">
-        <v>0.003221963278144652</v>
-      </c>
-      <c r="Q13">
-        <v>0.03385976851744444</v>
-      </c>
-      <c r="R13">
-        <v>0.304737916657</v>
-      </c>
-      <c r="S13">
-        <v>0.0004119852751656444</v>
-      </c>
-      <c r="T13">
-        <v>0.0004119852751656445</v>
+        <v>0.1434911889540142</v>
       </c>
     </row>
   </sheetData>
